--- a/teaching/traditional_assets/database/data/oman/oman_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/oman/oman_insurance_prop_cas.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1936807095343681</v>
+        <v>0.2253539253539254</v>
       </c>
       <c r="H2">
-        <v>0.1936807095343681</v>
+        <v>0.2253539253539254</v>
       </c>
       <c r="I2">
-        <v>0.1916537719709184</v>
+        <v>0.2194337194337195</v>
       </c>
       <c r="J2">
-        <v>0.1644748002747138</v>
+        <v>0.1853240040476682</v>
       </c>
       <c r="K2">
-        <v>14.11</v>
+        <v>14.17</v>
       </c>
       <c r="L2">
-        <v>0.156430155210643</v>
+        <v>0.1823680823680824</v>
       </c>
       <c r="M2">
-        <v>13.35</v>
+        <v>11.43</v>
       </c>
       <c r="N2">
-        <v>0.1009833585476551</v>
+        <v>0.09930495221546481</v>
       </c>
       <c r="O2">
-        <v>0.9461374911410347</v>
+        <v>0.8066337332392378</v>
       </c>
       <c r="P2">
-        <v>13.35</v>
+        <v>11.43</v>
       </c>
       <c r="Q2">
-        <v>0.1009833585476551</v>
+        <v>0.09930495221546481</v>
       </c>
       <c r="R2">
-        <v>0.9461374911410347</v>
+        <v>0.8066337332392378</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>23.95</v>
+        <v>13.23</v>
       </c>
       <c r="V2">
-        <v>0.1811649016641452</v>
+        <v>0.1149435273675065</v>
       </c>
       <c r="W2">
-        <v>0.1010079176910567</v>
+        <v>0.09649126942964464</v>
       </c>
       <c r="X2">
-        <v>0.05846841129353792</v>
+        <v>0.06399564953766468</v>
       </c>
       <c r="Y2">
-        <v>0.04253950639751879</v>
+        <v>0.03249561989197997</v>
       </c>
       <c r="Z2">
-        <v>1.073181599619903</v>
+        <v>0.9939874632211845</v>
       </c>
       <c r="AA2">
-        <v>0.1626619854533953</v>
+        <v>0.1736170394444319</v>
       </c>
       <c r="AB2">
-        <v>0.05807819125823382</v>
+        <v>0.06355563128679435</v>
       </c>
       <c r="AC2">
-        <v>0.1045837941951615</v>
+        <v>0.1100614081576375</v>
       </c>
       <c r="AD2">
-        <v>4.02</v>
+        <v>3.97</v>
       </c>
       <c r="AE2">
-        <v>0.8291488411158109</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.84914884111581</v>
+        <v>3.97</v>
       </c>
       <c r="AG2">
-        <v>-19.10085115888419</v>
+        <v>-9.26</v>
       </c>
       <c r="AH2">
-        <v>0.03538255350084325</v>
+        <v>0.03334173175443017</v>
       </c>
       <c r="AI2">
-        <v>0.03387480037689906</v>
+        <v>0.0274987878368082</v>
       </c>
       <c r="AJ2">
-        <v>-0.1688858966190585</v>
+        <v>-0.08749055177626607</v>
       </c>
       <c r="AK2">
-        <v>-0.1602431841551512</v>
+        <v>-0.07061156016470946</v>
       </c>
       <c r="AL2">
-        <v>0.146</v>
+        <v>0.208</v>
       </c>
       <c r="AM2">
-        <v>0.146</v>
+        <v>0.208</v>
       </c>
       <c r="AN2">
-        <v>0.2184426452208879</v>
+        <v>0.2195796460176991</v>
       </c>
       <c r="AO2">
-        <v>113.972602739726</v>
+        <v>81.97115384615385</v>
       </c>
       <c r="AP2">
-        <v>-1.037920510725653</v>
+        <v>-0.5121681415929203</v>
       </c>
       <c r="AQ2">
-        <v>113.972602739726</v>
+        <v>81.97115384615385</v>
       </c>
     </row>
     <row r="3">
@@ -719,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1890243902439025</v>
+        <v>0.2397868561278863</v>
       </c>
       <c r="H3">
-        <v>0.1890243902439025</v>
+        <v>0.2397868561278863</v>
       </c>
       <c r="I3">
-        <v>0.2019385706063543</v>
+        <v>0.2362344582593251</v>
       </c>
       <c r="J3">
-        <v>0.1714054587306735</v>
+        <v>0.1992664705164536</v>
       </c>
       <c r="K3">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>0.1615853658536585</v>
+        <v>0.1953818827708703</v>
       </c>
       <c r="M3">
-        <v>11.4</v>
+        <v>9.35</v>
       </c>
       <c r="N3">
-        <v>0.109720885466795</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="O3">
-        <v>1.075471698113208</v>
+        <v>0.85</v>
       </c>
       <c r="P3">
-        <v>11.4</v>
+        <v>9.35</v>
       </c>
       <c r="Q3">
-        <v>0.109720885466795</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R3">
-        <v>1.075471698113208</v>
+        <v>0.85</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.85</v>
+        <v>5.55</v>
       </c>
       <c r="V3">
-        <v>0.06592877767083734</v>
+        <v>0.05935828877005347</v>
       </c>
       <c r="W3">
-        <v>0.1050545094152626</v>
+        <v>0.1097804391217565</v>
       </c>
       <c r="X3">
-        <v>0.0592321629858404</v>
+        <v>0.06496516210034954</v>
       </c>
       <c r="Y3">
-        <v>0.04582234642942222</v>
+        <v>0.04481527702140695</v>
       </c>
       <c r="Z3">
-        <v>1.251689856648383</v>
+        <v>0.9847822284414902</v>
       </c>
       <c r="AA3">
-        <v>0.2145464740673469</v>
+        <v>0.1962340788888637</v>
       </c>
       <c r="AB3">
-        <v>0.05845172291523221</v>
+        <v>0.06408512559860889</v>
       </c>
       <c r="AC3">
-        <v>0.1560947511521147</v>
+        <v>0.1321489532902548</v>
       </c>
       <c r="AD3">
-        <v>4.02</v>
+        <v>3.97</v>
       </c>
       <c r="AE3">
-        <v>0.8291488411158109</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.84914884111581</v>
+        <v>3.97</v>
       </c>
       <c r="AG3">
-        <v>-2.000851158884189</v>
+        <v>-1.58</v>
       </c>
       <c r="AH3">
-        <v>0.04459022339752278</v>
+        <v>0.04073048117369447</v>
       </c>
       <c r="AI3">
-        <v>0.04616076279161505</v>
+        <v>0.03753427247801835</v>
       </c>
       <c r="AJ3">
-        <v>-0.01963560227577539</v>
+        <v>-0.01718885987815491</v>
       </c>
       <c r="AK3">
-        <v>-0.0203754429900561</v>
+        <v>-0.01576531630413091</v>
       </c>
       <c r="AL3">
-        <v>0.146</v>
+        <v>0.208</v>
       </c>
       <c r="AM3">
-        <v>0.146</v>
+        <v>0.208</v>
       </c>
       <c r="AN3">
-        <v>0.2868764718475701</v>
+        <v>0.2835714285714286</v>
       </c>
       <c r="AO3">
-        <v>86.3013698630137</v>
+        <v>63.9423076923077</v>
       </c>
       <c r="AP3">
-        <v>-0.1427853535206015</v>
+        <v>-0.1128571428571428</v>
       </c>
       <c r="AQ3">
-        <v>86.3013698630137</v>
+        <v>63.9423076923077</v>
       </c>
     </row>
     <row r="4">
@@ -847,40 +847,40 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.2060975609756097</v>
+        <v>0.1873831775700935</v>
       </c>
       <c r="H4">
-        <v>0.2060975609756097</v>
+        <v>0.1873831775700935</v>
       </c>
       <c r="I4">
-        <v>0.1642276422764228</v>
+        <v>0.1752336448598131</v>
       </c>
       <c r="J4">
-        <v>0.1424796747967479</v>
+        <v>0.148177570093458</v>
       </c>
       <c r="K4">
-        <v>3.51</v>
+        <v>3.17</v>
       </c>
       <c r="L4">
-        <v>0.1426829268292683</v>
+        <v>0.1481308411214953</v>
       </c>
       <c r="M4">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="N4">
-        <v>0.06890459363957596</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="O4">
-        <v>0.5555555555555556</v>
+        <v>0.6561514195583596</v>
       </c>
       <c r="P4">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="Q4">
-        <v>0.06890459363957596</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="R4">
-        <v>0.5555555555555556</v>
+        <v>0.6561514195583596</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,31 +889,31 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>17.1</v>
+        <v>7.68</v>
       </c>
       <c r="V4">
-        <v>0.6042402826855124</v>
+        <v>0.3555555555555555</v>
       </c>
       <c r="W4">
-        <v>0.09696132596685081</v>
+        <v>0.0832020997375328</v>
       </c>
       <c r="X4">
-        <v>0.05770465960123544</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="Y4">
-        <v>0.03925666636561537</v>
+        <v>0.02017596276255298</v>
       </c>
       <c r="Z4">
-        <v>0.777496839443742</v>
+        <v>1.019047619047619</v>
       </c>
       <c r="AA4">
-        <v>0.1107774968394437</v>
+        <v>0.151</v>
       </c>
       <c r="AB4">
-        <v>0.05770465960123544</v>
+        <v>0.06302613697497982</v>
       </c>
       <c r="AC4">
-        <v>0.05307283723820828</v>
+        <v>0.08797386302502021</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-17.1</v>
+        <v>-7.68</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-1.526785714285714</v>
+        <v>-0.5517241379310344</v>
       </c>
       <c r="AK4">
-        <v>-0.8142857142857144</v>
+        <v>-0.2483829236739974</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-3.895216400911163</v>
+        <v>-1.882352941176471</v>
       </c>
     </row>
   </sheetData>
